--- a/05 SQL/EXCEL.xlsx
+++ b/05 SQL/EXCEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\上課教材\2025AI\05 SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5114CC7-13AF-4AF5-B3B4-C6200E5DCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848104C-1577-4BDC-BB69-30F7235978F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="3" xr2:uid="{DAA5B7A0-F9EF-463B-B03F-2379939B9459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{DAA5B7A0-F9EF-463B-B03F-2379939B9459}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF85561-E874-4489-821A-9FF6B8397679}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -605,6 +605,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -673,10 +677,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -744,11 +751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3604065C-8504-4F02-9A10-6A598C9104FB}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
